--- a/SpiceSimulations/power_management/TPS2594_3V3.xlsx
+++ b/SpiceSimulations/power_management/TPS2594_3V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip.Filip\Documents\VST104\SpiceSimulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip.Filip\Documents\VST104\SpiceSimulations\power_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD70B71-382B-4586-8402-D12302CF37C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD9A97-A7ED-4EBB-9DA3-B508CA6C8C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation Sheet" sheetId="1" r:id="rId1"/>
@@ -2289,16 +2289,16 @@
                   <c:v>2.7929801324503312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7866666666666671</c:v>
+                  <c:v>2.7920930232558141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.981733333333334</c:v>
+                  <c:v>2.9875395348837213</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5838914549653578</c:v>
+                  <c:v>3.5949913043478263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4536,7 +4536,7 @@
       <pane xSplit="2" ySplit="15" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4781,17 +4781,17 @@
         <v>215</v>
       </c>
       <c r="D17" s="54">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="56">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M17" s="1">
         <f>IF(D17&gt;=100,D17,IF(D17&gt;=10,D17*10,D17*100))</f>
-        <v>210</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>91</v>
       </c>
       <c r="F18" s="56">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J18" s="4">
         <f>D33</f>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="D19" s="76">
         <f>(((OVset/OVref)-(UVset/UVref))*RpUVLO/(((UVset/UVref)-1)*OVset/OVref))</f>
-        <v>16.755319148936188</v>
+        <v>22.340425531914917</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>20</v>
@@ -4839,14 +4839,14 @@
       <c r="F19" s="36"/>
       <c r="J19" s="4">
         <f>D26</f>
-        <v>2.7866666666666671</v>
+        <v>2.7920930232558141</v>
       </c>
       <c r="K19" s="96" t="s">
         <v>204</v>
       </c>
       <c r="M19" s="135">
         <f>IF(D19&gt;=100,D19,IF(D19&gt;=10,D19*10,D19*100))</f>
-        <v>167.55319148936189</v>
+        <v>223.40425531914917</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="D20" s="76">
         <f>((RpUVLO/((UVset/UVref)-1))-D19)</f>
-        <v>86.010638297872333</v>
+        <v>114.68085106382978</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>20</v>
@@ -4866,14 +4866,14 @@
       <c r="F20" s="36"/>
       <c r="J20" s="4">
         <f>D27</f>
-        <v>2.981733333333334</v>
+        <v>2.9875395348837213</v>
       </c>
       <c r="K20" s="96" t="s">
         <v>205</v>
       </c>
       <c r="M20" s="135">
         <f>IF(D20&gt;=100,D20,IF(D20&gt;=10,D20*10,D20*100))</f>
-        <v>860.10638297872333</v>
+        <v>114.68085106382978</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
       <c r="F22" s="25"/>
       <c r="J22" s="4">
         <f>D28</f>
-        <v>3.5838914549653578</v>
+        <v>3.5949913043478263</v>
       </c>
       <c r="K22" s="96" t="s">
         <v>206</v>
@@ -4928,22 +4928,22 @@
       </c>
       <c r="D23" s="49">
         <f>G23</f>
-        <v>16.899999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="50">
         <f>F17</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G23" s="99">
         <f>M23*D19/M19</f>
-        <v>16.899999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="M23" s="136">
         <f>INDEX('Res EIA Tables'!E$5:E$197,2+MATCH(M19,'Res EIA Tables'!E$5:E$197))</f>
-        <v>169</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="D24" s="49">
         <f>G24</f>
-        <v>86.600000000000009</v>
+        <v>115</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="50">
         <f>F23</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G24" s="137">
         <f>M24*D20/M20</f>
-        <v>86.600000000000009</v>
+        <v>115</v>
       </c>
       <c r="M24" s="136">
         <f>INDEX('Res EIA Tables'!E$5:E$197,2+MATCH(M20,'Res EIA Tables'!E$5:E$197))</f>
-        <v>866</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F25" s="50">
         <f>F18</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" s="137">
         <f>M25*D21/M21</f>
@@ -5010,14 +5010,14 @@
       </c>
       <c r="D26" s="63">
         <f>(UVref*(1+(D17/(D23+D24))))</f>
-        <v>2.7866666666666671</v>
+        <v>2.7920930232558141</v>
       </c>
       <c r="E26" s="64" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="65">
         <f>SQRT(F103^2+F17^2+F23^2+F24^2)</f>
-        <v>2.6457513110645908E-2</v>
+        <v>2.179449471770337E-2</v>
       </c>
       <c r="G26" s="100"/>
       <c r="L26" s="67"/>
@@ -5031,14 +5031,14 @@
       </c>
       <c r="D27" s="21">
         <f>D26*1.07</f>
-        <v>2.981733333333334</v>
+        <v>2.9875395348837213</v>
       </c>
       <c r="E27" s="70" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="71">
         <f>F26</f>
-        <v>2.6457513110645908E-2</v>
+        <v>2.179449471770337E-2</v>
       </c>
       <c r="G27" s="101"/>
       <c r="L27" s="73"/>
@@ -5053,14 +5053,14 @@
       </c>
       <c r="D28" s="63">
         <f>(OVref*(1+((D17+D23)/D24)))</f>
-        <v>3.5838914549653578</v>
+        <v>3.5949913043478263</v>
       </c>
       <c r="E28" s="64" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="65">
         <f>SQRT(F104^2+F17^2+F23^2+F24^2)</f>
-        <v>2.6457513110645908E-2</v>
+        <v>2.179449471770337E-2</v>
       </c>
       <c r="G28" s="100"/>
       <c r="L28" s="67"/>
@@ -5074,14 +5074,14 @@
       </c>
       <c r="D29" s="21">
         <f>D28*0.93</f>
-        <v>3.3330190531177828</v>
+        <v>3.3433419130434787</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="71">
         <f>F28</f>
-        <v>2.6457513110645908E-2</v>
+        <v>2.179449471770337E-2</v>
       </c>
       <c r="G29" s="101"/>
       <c r="L29" s="73"/>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="D30" s="21">
         <f>Vcc_max*1000/(RpUVLO+D23+D24)</f>
-        <v>10.526315789473685</v>
+        <v>7.902298850574712</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>7</v>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="F32" s="71">
         <f>F33</f>
-        <v>2.4494897427831782E-2</v>
+        <v>2.1213203435596427E-2</v>
       </c>
       <c r="G32" s="101"/>
       <c r="L32" s="73"/>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="F33" s="65">
         <f>SQRT(F108^2+F18^2+F25^2)</f>
-        <v>2.4494897427831782E-2</v>
+        <v>2.1213203435596427E-2</v>
       </c>
       <c r="G33" s="100"/>
       <c r="L33" s="67"/>
@@ -5242,7 +5242,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="56">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G39" s="137">
         <f>M39*D37/M37</f>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F40" s="69">
         <f>SQRT(0.08^2+F39^2)</f>
-        <v>8.06225774829855E-2</v>
+        <v>8.0156097709406987E-2</v>
       </c>
       <c r="G40" s="100"/>
       <c r="J40" s="4"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="F41" s="37">
         <f>SQRT(F40^2+F8^2)</f>
-        <v>0.12845232578665131</v>
+        <v>0.12816005617976298</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="F42" s="37">
         <f>SQRT(F40^2+0.2^2)</f>
-        <v>0.21563858652847825</v>
+        <v>0.21546461426415245</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
